--- a/Scripts/token&others(official).xlsx
+++ b/Scripts/token&others(official).xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="uids" sheetId="1" r:id="rId1"/>
+    <sheet name="tokens" sheetId="2" r:id="rId2"/>
+    <sheet name="role_ids" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -356,7 +356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -370,7 +372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -384,7 +388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
